--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_28_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56611.46736585696</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>56611.46736585696</v>
+        <v>11264306.38109999</v>
       </c>
     </row>
     <row r="9">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>960272924.2768981</v>
+        <v>40614793.16442673</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9116.908202978693</v>
+        <v>1052493.871362158</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16541.77656988427</v>
+        <v>1839604.521570029</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23966.1753342335</v>
+        <v>2626715.171777902</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31412.59988516212</v>
+        <v>3413834.469534505</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38858.83883856618</v>
+        <v>4200945.119742377</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46305.07779197023</v>
+        <v>4988055.769950248</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>53751.11985628722</v>
+        <v>5775166.420158117</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61197.2659374804</v>
+        <v>6562277.070365985</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>68643.60890776062</v>
+        <v>7349387.720573854</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76089.84786116527</v>
+        <v>8136498.370781722</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>83536.08681456886</v>
+        <v>8923609.020989597</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>90982.32576797288</v>
+        <v>9710719.671197474</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>98428.56472137691</v>
+        <v>10497830.32140535</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>105874.6067856939</v>
+        <v>11284940.97161323</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>113320.752866887</v>
+        <v>12072051.62182111</v>
       </c>
     </row>
   </sheetData>
